--- a/pricesheets/16-10-2020.xlsx
+++ b/pricesheets/16-10-2020.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="157">
   <si>
     <t>Company Name</t>
   </si>
@@ -193,214 +193,217 @@
     <t>2.0991</t>
   </si>
   <si>
-    <t>1.3978</t>
-  </si>
-  <si>
-    <t>4.0001</t>
+    <t>1.3591</t>
+  </si>
+  <si>
+    <t>3.9981</t>
+  </si>
+  <si>
+    <t>3.9975</t>
+  </si>
+  <si>
+    <t>221.9137</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>4.3486</t>
+  </si>
+  <si>
+    <t>38.2576</t>
+  </si>
+  <si>
+    <t>8.4403</t>
+  </si>
+  <si>
+    <t>0.68</t>
+  </si>
+  <si>
+    <t>15.7579</t>
+  </si>
+  <si>
+    <t>4.5261</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>1.15</t>
+  </si>
+  <si>
+    <t>0.5018</t>
+  </si>
+  <si>
+    <t>4.2167</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>0.1496</t>
+  </si>
+  <si>
+    <t>0.125</t>
+  </si>
+  <si>
+    <t>13.8026</t>
+  </si>
+  <si>
+    <t>18.9199</t>
+  </si>
+  <si>
+    <t>6.1</t>
+  </si>
+  <si>
+    <t>0.632</t>
+  </si>
+  <si>
+    <t>2.5025</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>15.3571</t>
+  </si>
+  <si>
+    <t>1.05</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>0.191</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4.558</t>
+  </si>
+  <si>
+    <t>5.9887</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>8.8889</t>
+  </si>
+  <si>
+    <t>17.0547</t>
+  </si>
+  <si>
+    <t>6.1811</t>
+  </si>
+  <si>
+    <t>0.17</t>
+  </si>
+  <si>
+    <t>0.131</t>
+  </si>
+  <si>
+    <t>5.35</t>
+  </si>
+  <si>
+    <t>0.6225</t>
+  </si>
+  <si>
+    <t>0.1295</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>0.0002</t>
+  </si>
+  <si>
+    <t>0.72</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>Closing Price</t>
+  </si>
+  <si>
+    <t>1.57</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>1.3561</t>
+  </si>
+  <si>
+    <t>3.9043</t>
   </si>
   <si>
     <t>3.995</t>
   </si>
   <si>
-    <t>224.4857</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>4.3496</t>
-  </si>
-  <si>
-    <t>38.6017</t>
-  </si>
-  <si>
-    <t>8.4403</t>
-  </si>
-  <si>
-    <t>0.7</t>
-  </si>
-  <si>
-    <t>15.8987</t>
-  </si>
-  <si>
-    <t>4.6005</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>1.15</t>
-  </si>
-  <si>
-    <t>0.519</t>
-  </si>
-  <si>
-    <t>4.0463</t>
-  </si>
-  <si>
-    <t>2.2</t>
-  </si>
-  <si>
-    <t>0.1496</t>
-  </si>
-  <si>
-    <t>0.125</t>
-  </si>
-  <si>
-    <t>13.75</t>
-  </si>
-  <si>
-    <t>18.6007</t>
-  </si>
-  <si>
-    <t>6.1</t>
-  </si>
-  <si>
-    <t>0.6702</t>
-  </si>
-  <si>
-    <t>2.45</t>
-  </si>
-  <si>
-    <t>0.0792</t>
-  </si>
-  <si>
-    <t>15.3571</t>
-  </si>
-  <si>
-    <t>1.05</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>0.191</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4.55</t>
-  </si>
-  <si>
-    <t>14.0758</t>
-  </si>
-  <si>
-    <t>5.9828</t>
-  </si>
-  <si>
-    <t>2.26</t>
-  </si>
-  <si>
-    <t>8.8889</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>6.25</t>
-  </si>
-  <si>
-    <t>0.17</t>
-  </si>
-  <si>
-    <t>0.131</t>
-  </si>
-  <si>
-    <t>5.35</t>
-  </si>
-  <si>
-    <t>0.6225</t>
-  </si>
-  <si>
-    <t>0.1295</t>
-  </si>
-  <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>0.0002</t>
-  </si>
-  <si>
-    <t>0.72</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>2.5</t>
-  </si>
-  <si>
-    <t>Closing Price</t>
-  </si>
-  <si>
-    <t>1.3591</t>
-  </si>
-  <si>
-    <t>3.9981</t>
-  </si>
-  <si>
-    <t>3.9975</t>
-  </si>
-  <si>
-    <t>221.9137</t>
-  </si>
-  <si>
-    <t>4.3486</t>
-  </si>
-  <si>
-    <t>38.2576</t>
-  </si>
-  <si>
-    <t>0.68</t>
-  </si>
-  <si>
-    <t>15.7579</t>
-  </si>
-  <si>
-    <t>4.5261</t>
-  </si>
-  <si>
-    <t>0.5018</t>
-  </si>
-  <si>
-    <t>4.2167</t>
-  </si>
-  <si>
-    <t>13.8026</t>
-  </si>
-  <si>
-    <t>18.9199</t>
-  </si>
-  <si>
-    <t>0.632</t>
-  </si>
-  <si>
-    <t>2.5025</t>
-  </si>
-  <si>
-    <t>0.08</t>
-  </si>
-  <si>
-    <t>4.558</t>
-  </si>
-  <si>
-    <t>5.9887</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>17.0547</t>
-  </si>
-  <si>
-    <t>6.1811</t>
+    <t>220</t>
+  </si>
+  <si>
+    <t>4.3389</t>
+  </si>
+  <si>
+    <t>38.0021</t>
+  </si>
+  <si>
+    <t>15.4528</t>
+  </si>
+  <si>
+    <t>4.5058</t>
+  </si>
+  <si>
+    <t>0.53</t>
+  </si>
+  <si>
+    <t>4.0004</t>
+  </si>
+  <si>
+    <t>18.9107</t>
+  </si>
+  <si>
+    <t>0.6667</t>
+  </si>
+  <si>
+    <t>2.5113</t>
+  </si>
+  <si>
+    <t>2.9995</t>
+  </si>
+  <si>
+    <t>4.6871</t>
+  </si>
+  <si>
+    <t>14.9841</t>
+  </si>
+  <si>
+    <t>5.99</t>
+  </si>
+  <si>
+    <t>17.0217</t>
+  </si>
+  <si>
+    <t>6.1601</t>
+  </si>
+  <si>
+    <t>0.5841</t>
   </si>
   <si>
     <t>Total Traded Volume</t>
@@ -409,91 +412,79 @@
     <t>0</t>
   </si>
   <si>
-    <t>39100</t>
-  </si>
-  <si>
-    <t>172500</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>62600</t>
-  </si>
-  <si>
-    <t>272100</t>
-  </si>
-  <si>
-    <t>68700</t>
-  </si>
-  <si>
-    <t>16700</t>
-  </si>
-  <si>
-    <t>1063200</t>
-  </si>
-  <si>
-    <t>820400</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>26200</t>
-  </si>
-  <si>
-    <t>6000</t>
-  </si>
-  <si>
-    <t>1892700</t>
-  </si>
-  <si>
-    <t>54200</t>
-  </si>
-  <si>
-    <t>498400</t>
-  </si>
-  <si>
-    <t>1023800</t>
-  </si>
-  <si>
-    <t>290000</t>
-  </si>
-  <si>
-    <t>61800</t>
-  </si>
-  <si>
-    <t>1800</t>
-  </si>
-  <si>
-    <t>164900</t>
-  </si>
-  <si>
-    <t>437200</t>
-  </si>
-  <si>
-    <t>25000</t>
-  </si>
-  <si>
-    <t>3200</t>
-  </si>
-  <si>
-    <t>1538000</t>
-  </si>
-  <si>
-    <t>270000</t>
+    <t>500</t>
   </si>
   <si>
     <t>800</t>
   </si>
   <si>
-    <t>1300</t>
+    <t>5400</t>
+  </si>
+  <si>
+    <t>125100</t>
   </si>
   <si>
     <t>200</t>
   </si>
   <si>
-    <t>4400</t>
+    <t>156600</t>
+  </si>
+  <si>
+    <t>3500</t>
+  </si>
+  <si>
+    <t>140900</t>
+  </si>
+  <si>
+    <t>190900</t>
+  </si>
+  <si>
+    <t>39700</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>1400</t>
+  </si>
+  <si>
+    <t>1048200</t>
+  </si>
+  <si>
+    <t>463700</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>202100</t>
+  </si>
+  <si>
+    <t>259600</t>
+  </si>
+  <si>
+    <t>87800</t>
+  </si>
+  <si>
+    <t>14000</t>
+  </si>
+  <si>
+    <t>6300</t>
+  </si>
+  <si>
+    <t>1100</t>
+  </si>
+  <si>
+    <t>265800</t>
+  </si>
+  <si>
+    <t>2268000</t>
+  </si>
+  <si>
+    <t>24700</t>
+  </si>
+  <si>
+    <t>10400</t>
   </si>
 </sst>
 </file>
@@ -882,7 +873,7 @@
         <v>107</v>
       </c>
       <c r="D2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -901,7 +892,7 @@
         <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -912,10 +903,10 @@
         <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="D5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -926,10 +917,10 @@
         <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="D6" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -940,10 +931,10 @@
         <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -954,10 +945,10 @@
         <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D8" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -968,10 +959,10 @@
         <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D9" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -982,10 +973,10 @@
         <v>62</v>
       </c>
       <c r="C10" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D10" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -999,7 +990,7 @@
         <v>63</v>
       </c>
       <c r="D11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1010,10 +1001,10 @@
         <v>64</v>
       </c>
       <c r="C12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D12" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1024,10 +1015,10 @@
         <v>65</v>
       </c>
       <c r="C13" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D13" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1041,7 +1032,7 @@
         <v>66</v>
       </c>
       <c r="D14" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1052,10 +1043,10 @@
         <v>67</v>
       </c>
       <c r="C15" t="s">
-        <v>114</v>
+        <v>67</v>
       </c>
       <c r="D15" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1066,10 +1057,10 @@
         <v>68</v>
       </c>
       <c r="C16" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D16" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1080,10 +1071,10 @@
         <v>69</v>
       </c>
       <c r="C17" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D17" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1097,7 +1088,7 @@
         <v>70</v>
       </c>
       <c r="D18" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1111,7 +1102,7 @@
         <v>71</v>
       </c>
       <c r="D19" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1125,7 +1116,7 @@
         <v>72</v>
       </c>
       <c r="D20" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1136,10 +1127,10 @@
         <v>73</v>
       </c>
       <c r="C21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D21" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1150,10 +1141,10 @@
         <v>74</v>
       </c>
       <c r="C22" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D22" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1167,7 +1158,7 @@
         <v>75</v>
       </c>
       <c r="D23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1181,7 +1172,7 @@
         <v>76</v>
       </c>
       <c r="D24" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1195,7 +1186,7 @@
         <v>77</v>
       </c>
       <c r="D25" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1206,10 +1197,10 @@
         <v>78</v>
       </c>
       <c r="C26" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="D26" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1237,7 +1228,7 @@
         <v>80</v>
       </c>
       <c r="D28" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1276,7 +1267,7 @@
         <v>83</v>
       </c>
       <c r="C31" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="D31" t="s">
         <v>148</v>
@@ -1293,7 +1284,7 @@
         <v>84</v>
       </c>
       <c r="D32" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1307,7 +1298,7 @@
         <v>85</v>
       </c>
       <c r="D33" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1321,7 +1312,7 @@
         <v>86</v>
       </c>
       <c r="D34" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1335,7 +1326,7 @@
         <v>87</v>
       </c>
       <c r="D35" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1346,7 +1337,7 @@
         <v>88</v>
       </c>
       <c r="C36" t="s">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="D36" t="s">
         <v>149</v>
@@ -1371,10 +1362,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="C38" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="D38" t="s">
         <v>151</v>
@@ -1391,7 +1382,7 @@
         <v>57</v>
       </c>
       <c r="D39" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1399,13 +1390,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C40" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D40" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1413,13 +1404,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" t="s">
-        <v>126</v>
+        <v>91</v>
       </c>
       <c r="D41" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1427,13 +1418,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C42" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D42" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1441,7 +1432,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C43" t="s">
         <v>127</v>
@@ -1455,7 +1446,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C44" t="s">
         <v>128</v>
@@ -1469,10 +1460,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C45" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D45" t="s">
         <v>155</v>
@@ -1483,13 +1474,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C46" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D46" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1497,13 +1488,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D47" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1511,10 +1502,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C48" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="D48" t="s">
         <v>156</v>
@@ -1525,13 +1516,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C49" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D49" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1539,13 +1530,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D50" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1553,13 +1544,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C51" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D51" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1567,13 +1558,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C52" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D52" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1581,13 +1572,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C53" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D53" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1595,13 +1586,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C54" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D54" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1609,13 +1600,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C55" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D55" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1623,13 +1614,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="C56" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="D56" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
